--- a/LoanOfficer-A/2023/26 bijenti.xlsx
+++ b/LoanOfficer-A/2023/26 bijenti.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3600" windowWidth="20640" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="3000" windowWidth="20640" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="loanForm" sheetId="16" r:id="rId1"/>
@@ -14,9 +14,9 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'MD20000.15-DEC'!$A$3:$N$32</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -107,12 +107,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,7 +328,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -606,21 +606,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:C28"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="12"/>
     <col min="2" max="2" width="16.5703125" style="12" customWidth="1"/>
@@ -628,14 +628,14 @@
     <col min="4" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3">
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3">
       <c r="B5" s="13"/>
     </row>
-    <row r="7" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" ht="16.5">
       <c r="B7" s="14" t="s">
         <v>5</v>
       </c>
@@ -643,7 +643,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" ht="16.5">
       <c r="B8" s="14" t="s">
         <v>6</v>
       </c>
@@ -651,7 +651,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" ht="16.5">
       <c r="B9" s="14" t="s">
         <v>7</v>
       </c>
@@ -659,7 +659,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" ht="16.5">
       <c r="B10" s="14" t="s">
         <v>8</v>
       </c>
@@ -667,7 +667,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" ht="16.5">
       <c r="B11" s="14" t="s">
         <v>9</v>
       </c>
@@ -675,7 +675,7 @@
         <v>9863328343</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" ht="16.5">
       <c r="B12" s="14" t="s">
         <v>10</v>
       </c>
@@ -683,7 +683,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" ht="16.5">
       <c r="B13" s="14" t="s">
         <v>11</v>
       </c>
@@ -691,7 +691,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" ht="16.5">
       <c r="B14" s="14" t="s">
         <v>12</v>
       </c>
@@ -699,47 +699,47 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" ht="16.5">
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
     </row>
-    <row r="16" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" ht="16.5">
       <c r="B16" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="14"/>
     </row>
-    <row r="17" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" ht="16.5">
       <c r="B17" s="22" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="22"/>
     </row>
-    <row r="19" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" ht="16.5">
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
     </row>
-    <row r="21" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" ht="16.5">
       <c r="B21" s="22" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="22"/>
     </row>
-    <row r="22" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" ht="16.5">
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
     </row>
-    <row r="23" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" ht="16.5">
       <c r="B23" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="15"/>
     </row>
-    <row r="24" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" ht="16.5">
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
     </row>
-    <row r="25" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" ht="16.5">
       <c r="B25" s="14" t="s">
         <v>17</v>
       </c>
@@ -747,17 +747,17 @@
         <v>45212</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" ht="16.5">
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
     </row>
-    <row r="27" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" ht="16.5">
       <c r="B27" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C27" s="15"/>
     </row>
-    <row r="28" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" ht="16.5">
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
     </row>
@@ -773,15 +773,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="19.140625" style="2" customWidth="1"/>
@@ -801,7 +801,7 @@
     <col min="17" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="5"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -833,11 +833,11 @@
       </c>
       <c r="O1" s="8">
         <f>SUM(C3:C32)+SUM(G3:G32)+SUM(K3:K32)+SUM(O3:O32)</f>
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="P1" s="6"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="5"/>
       <c r="B2" s="5" t="s">
         <v>1</v>
@@ -866,16 +866,20 @@
       </c>
       <c r="O2" s="11">
         <f>C2-O1</f>
-        <v>24000</v>
+        <v>22600</v>
       </c>
       <c r="P2" s="6"/>
     </row>
-    <row r="3" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="16.5" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
+      <c r="B3" s="3">
+        <v>45345</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1400</v>
+      </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
@@ -898,7 +902,7 @@
       <c r="O3" s="4"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="16.5" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -924,7 +928,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="16.5" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -950,7 +954,7 @@
       <c r="O5" s="4"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="16.5" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -976,7 +980,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="16.5" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1002,7 +1006,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="16.5" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1028,7 +1032,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="16.5" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1054,7 +1058,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="16.5" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1080,7 +1084,7 @@
       <c r="O10" s="4"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="16.5" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1106,7 +1110,7 @@
       <c r="O11" s="4"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="16.5" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1132,7 +1136,7 @@
       <c r="O12" s="4"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="16.5" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1158,7 +1162,7 @@
       <c r="O13" s="4"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="16.5" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1184,7 +1188,7 @@
       <c r="O14" s="4"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="16.5" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1210,7 +1214,7 @@
       <c r="O15" s="4"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="16.5" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1236,7 +1240,7 @@
       <c r="O16" s="4"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="16.5" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1262,7 +1266,7 @@
       <c r="O17" s="4"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="16.5" customHeight="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1288,7 +1292,7 @@
       <c r="O18" s="4"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="16.5" customHeight="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1314,7 +1318,7 @@
       <c r="O19" s="4"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="16.5" customHeight="1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1340,7 +1344,7 @@
       <c r="O20" s="4"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="16.5" customHeight="1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1366,7 +1370,7 @@
       <c r="O21" s="4"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="16.5" customHeight="1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1392,7 +1396,7 @@
       <c r="O22" s="4"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="16.5" customHeight="1">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1418,7 +1422,7 @@
       <c r="O23" s="4"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="16.5" customHeight="1">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1444,7 +1448,7 @@
       <c r="O24" s="4"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="16.5" customHeight="1">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1470,7 +1474,7 @@
       <c r="O25" s="4"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="16.5" customHeight="1">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1496,7 +1500,7 @@
       <c r="O26" s="4"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="16.5" customHeight="1">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1522,7 +1526,7 @@
       <c r="O27" s="4"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="16.5" customHeight="1">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1548,7 +1552,7 @@
       <c r="O28" s="4"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="16.5" customHeight="1">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1574,7 +1578,7 @@
       <c r="O29" s="4"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="16.5" customHeight="1">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1600,7 +1604,7 @@
       <c r="O30" s="4"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="16.5" customHeight="1">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1626,7 +1630,7 @@
       <c r="O31" s="4"/>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="16.5" customHeight="1">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1664,12 +1668,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LoanOfficer-A/2023/26 bijenti.xlsx
+++ b/LoanOfficer-A/2023/26 bijenti.xlsx
@@ -328,7 +328,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -606,7 +606,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -824,7 +824,7 @@
       </c>
       <c r="K1" s="10">
         <f>G1-K2</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
@@ -833,7 +833,7 @@
       </c>
       <c r="O1" s="8">
         <f>SUM(C3:C32)+SUM(G3:G32)+SUM(K3:K32)+SUM(O3:O32)</f>
-        <v>1400</v>
+        <v>2800</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -857,7 +857,7 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(D3:D32)+SUM(H3:H32)+SUM(L3:L32)+SUM(P3:P32)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="5"/>
@@ -866,7 +866,7 @@
       </c>
       <c r="O2" s="11">
         <f>C2-O1</f>
-        <v>22600</v>
+        <v>21200</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -906,9 +906,15 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="1"/>
+      <c r="B4" s="3">
+        <v>45352</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1400</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
       <c r="E4" s="1">
         <v>32</v>
       </c>

--- a/LoanOfficer-A/2023/26 bijenti.xlsx
+++ b/LoanOfficer-A/2023/26 bijenti.xlsx
@@ -328,7 +328,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -606,7 +606,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -778,7 +778,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -824,7 +824,7 @@
       </c>
       <c r="K1" s="10">
         <f>G1-K2</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
@@ -833,7 +833,7 @@
       </c>
       <c r="O1" s="8">
         <f>SUM(C3:C32)+SUM(G3:G32)+SUM(K3:K32)+SUM(O3:O32)</f>
-        <v>2800</v>
+        <v>4200</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -857,7 +857,7 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(D3:D32)+SUM(H3:H32)+SUM(L3:L32)+SUM(P3:P32)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="5"/>
@@ -866,7 +866,7 @@
       </c>
       <c r="O2" s="11">
         <f>C2-O1</f>
-        <v>21200</v>
+        <v>19800</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -938,9 +938,15 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="1"/>
+      <c r="B5" s="3">
+        <v>45359</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1400</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
       <c r="E5" s="1">
         <v>33</v>
       </c>

--- a/LoanOfficer-A/2023/26 bijenti.xlsx
+++ b/LoanOfficer-A/2023/26 bijenti.xlsx
@@ -778,7 +778,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -824,7 +824,7 @@
       </c>
       <c r="K1" s="10">
         <f>G1-K2</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
@@ -833,7 +833,7 @@
       </c>
       <c r="O1" s="8">
         <f>SUM(C3:C32)+SUM(G3:G32)+SUM(K3:K32)+SUM(O3:O32)</f>
-        <v>4200</v>
+        <v>7000</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -857,7 +857,7 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(D3:D32)+SUM(H3:H32)+SUM(L3:L32)+SUM(P3:P32)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="5"/>
@@ -866,7 +866,7 @@
       </c>
       <c r="O2" s="11">
         <f>C2-O1</f>
-        <v>19800</v>
+        <v>17000</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -970,9 +970,15 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="1"/>
+      <c r="B6" s="3">
+        <v>45366</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1400</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
       <c r="E6" s="1">
         <v>34</v>
       </c>
@@ -996,9 +1002,15 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="1"/>
+      <c r="B7" s="3">
+        <v>45373</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1400</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
       <c r="E7" s="1">
         <v>35</v>
       </c>
